--- a/tests/Feature/config/cabin_realistic.xlsx
+++ b/tests/Feature/config/cabin_realistic.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>private</t>
   </si>
@@ -145,115 +145,184 @@
     <t>Address</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0 Asset rule </t>
+    <t xml:space="preserve">Rental AirBNB no transferResource &amp;&amp; transferRule
+ExpencesUsing current value: 2000 * 12Fortune sets the value from the tax authorities, which is different from marketprice Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Rental AirBNBNormal: 0ExpencesNormal: 24000Fortune sets the value from the tax authorities, which is different from marketprice Asset rule Normal: 10000000</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 25200 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 25200 Asset rule Normal: 10200000</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 26460 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 26460 Asset rule Normal: 10404000</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 27783 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 27783 Asset rule Normal: 10716120</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 29172 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 29172 Asset rule Normal: 11144765</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 30631 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 30631 Asset rule Normal: 11702003</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 32162 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 32162 Asset rule Normal: 12287103</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 33770 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 33770 Asset rule Normal: 12901458</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 35459 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 35459 Asset rule Normal: 13546531</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 37232 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 37232 Asset rule Normal: 14223858</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 39093 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 39093 Asset rule Normal: 14935051</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 41048 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 41048 Asset rule Normal: 15681804</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 43101 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 43101 Asset rule Normal: 16465894</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 45256 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 45256 Asset rule Normal: 17289189</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 47518 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 47518 Asset rule Normal: 18153648</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 49894 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 49894 Asset rule Normal: 19061330</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 52389 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 52389 Asset rule Normal: 20014397</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 55008 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 55008 Asset rule Normal: 21015117</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 57759 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 57759 Asset rule Normal: 22065873</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 60647 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 60647 Asset rule Normal: 23169167</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 63679 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 63679 Asset rule Normal: 24327625</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 66863 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 66863 Asset rule Normal: 25544006</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 70206 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 70206 Asset rule Normal: 26821206</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 73717 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 73717 Asset rule Normal: 28162266</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 77402 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 77402 Asset rule Normal: 29570379</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 81273 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 81273 Asset rule Normal: 31048898</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 85336 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 85336 Asset rule Normal: 32601343</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 89603 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 89603 Asset rule Normal: 34231410</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 94083 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 94083 Asset rule Normal: 35942981</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 98787 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 98787 Asset rule Normal: 37740130</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 103727 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 103727 Asset rule Normal: 39627137</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 108913 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 108913 Asset rule Normal: 41608494</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 114359 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 114359 Asset rule Normal: 43688919</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 120077 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 120077 Asset rule Normal: 45873365</t>
-  </si>
-  <si>
-    <t>Using previous value: 0Using previous value: 126080 Asset rule Normal: 48167033</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 126080 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
     <t>total</t>
@@ -678,7 +747,7 @@
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -835,11 +904,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
@@ -857,14 +926,14 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
@@ -878,17 +947,17 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0.0</v>
@@ -907,11 +976,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -929,14 +998,14 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
@@ -950,17 +1019,17 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0.0</v>
@@ -979,11 +1048,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -1001,14 +1070,14 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
@@ -1022,17 +1091,17 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0.0</v>
@@ -1051,11 +1120,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -1073,14 +1142,14 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
@@ -1094,17 +1163,17 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0.0</v>
@@ -1123,11 +1192,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1145,14 +1214,14 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
@@ -1166,17 +1235,17 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0.0</v>
@@ -1195,11 +1264,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1217,14 +1286,14 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
@@ -1238,17 +1307,17 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0.0</v>
@@ -1267,11 +1336,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1289,14 +1358,14 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
@@ -1310,17 +1379,17 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0.0</v>
@@ -1339,11 +1408,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1361,14 +1430,14 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
@@ -1382,17 +1451,17 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0.0</v>
@@ -1411,11 +1480,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1433,14 +1502,14 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
@@ -1454,17 +1523,17 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0.0</v>
@@ -1483,11 +1552,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1505,14 +1574,14 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
@@ -1526,17 +1595,17 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0.0</v>
@@ -1555,11 +1624,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1577,14 +1646,14 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
@@ -1598,17 +1667,17 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0.0</v>
@@ -1627,11 +1696,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -1649,14 +1718,14 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
@@ -1670,17 +1739,17 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0.0</v>
@@ -1699,11 +1768,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -1721,14 +1790,14 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
@@ -1742,17 +1811,17 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0.0</v>
@@ -1771,11 +1840,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -1793,14 +1862,14 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
@@ -1814,17 +1883,17 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0.0</v>
@@ -1843,11 +1912,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -1865,14 +1934,14 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
@@ -1886,17 +1955,17 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0.0</v>
@@ -1915,11 +1984,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -1937,14 +2006,14 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
@@ -1958,17 +2027,17 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0.0</v>
@@ -1987,11 +2056,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -2009,14 +2078,14 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
@@ -2030,17 +2099,17 @@
         <v>0.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0.0</v>
@@ -2059,11 +2128,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -2081,14 +2150,14 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
@@ -2102,17 +2171,17 @@
         <v>0.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0.0</v>
@@ -2131,11 +2200,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2153,14 +2222,14 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
@@ -2174,17 +2243,17 @@
         <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0.0</v>
@@ -2203,11 +2272,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2225,14 +2294,14 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
@@ -2246,17 +2315,17 @@
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0.0</v>
@@ -2275,11 +2344,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2297,14 +2366,14 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
@@ -2318,17 +2387,17 @@
         <v>0.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0.0</v>
@@ -2347,11 +2416,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2369,14 +2438,14 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
@@ -2390,17 +2459,17 @@
         <v>0.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0.0</v>
@@ -2419,11 +2488,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2441,14 +2510,14 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
@@ -2462,17 +2531,17 @@
         <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0.0</v>
@@ -2491,11 +2560,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2513,14 +2582,14 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
@@ -2534,17 +2603,17 @@
         <v>0.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0.0</v>
@@ -2563,11 +2632,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -2585,14 +2654,14 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
@@ -2606,17 +2675,17 @@
         <v>0.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0.0</v>
@@ -2635,11 +2704,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -2657,14 +2726,14 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
@@ -2678,17 +2747,17 @@
         <v>0.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0.0</v>
@@ -2707,11 +2776,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -2729,14 +2798,14 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
@@ -2750,17 +2819,17 @@
         <v>0.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA32">
         <v>0.0</v>
@@ -2779,11 +2848,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -2801,14 +2870,14 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
@@ -2822,17 +2891,17 @@
         <v>0.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <v>0.0</v>
@@ -2851,11 +2920,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -2873,14 +2942,14 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
@@ -2894,17 +2963,17 @@
         <v>0.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>0.0</v>
@@ -2923,11 +2992,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -2945,14 +3014,14 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
@@ -2966,17 +3035,17 @@
         <v>0.0</v>
       </c>
       <c r="V35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0.0</v>
@@ -2995,11 +3064,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -3017,14 +3086,14 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
@@ -3038,17 +3107,17 @@
         <v>0.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0.0</v>
@@ -3067,11 +3136,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3089,14 +3158,14 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
@@ -3110,17 +3179,17 @@
         <v>0.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0.0</v>
@@ -3139,11 +3208,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8">
-        <v>24000.0</v>
+        <v>24000</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8">
@@ -3161,14 +3230,14 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>10000000.0</v>
+        <v>10000000</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
@@ -3184,17 +3253,17 @@
         <v>-27500.0</v>
       </c>
       <c r="V38" s="8">
-        <v>10000000.0</v>
+        <v>10000000</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="7">
         <v>0.0</v>
@@ -3213,11 +3282,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>25200.0</v>
+        <v>25200</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3235,40 +3304,40 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>10200000.0</v>
+        <v>10200000</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>357000</v>
+        <v>3060000.0</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
       </c>
       <c r="T39" s="1">
-        <v>0.0</v>
+        <v>13600.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-28770.0</v>
+        <v>-55800.0</v>
       </c>
       <c r="V39" s="1">
-        <v>10200000.0</v>
+        <v>10200000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>0.0</v>
@@ -3287,11 +3356,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>26460.0</v>
+        <v>26460</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3309,40 +3378,40 @@
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>10404000.0</v>
+        <v>10404000</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>364140</v>
+        <v>3121200.0</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
       </c>
       <c r="T40" s="11">
-        <v>0.0</v>
+        <v>14212.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-30101.4</v>
+        <v>-57672.0</v>
       </c>
       <c r="V40" s="11">
-        <v>10404000.0</v>
+        <v>10404000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="10">
         <v>0.0</v>
@@ -3361,11 +3430,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>27783.0</v>
+        <v>27783</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3383,40 +3452,40 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>10716120.0</v>
+        <v>10716120</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>375064</v>
+        <v>3214836.0</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
       </c>
       <c r="T41" s="1">
-        <v>0.0</v>
+        <v>15148.36</v>
       </c>
       <c r="U41" s="6">
-        <v>-31533.64</v>
+        <v>-59931.36</v>
       </c>
       <c r="V41" s="1">
-        <v>10716120.0</v>
+        <v>10716120</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <v>0.0</v>
@@ -3435,7 +3504,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
@@ -3457,40 +3526,40 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>11144765.0</v>
+        <v>11144765</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>390067</v>
+        <v>3343429.5</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
       </c>
       <c r="T42" s="1">
-        <v>0.0</v>
+        <v>16434.295</v>
       </c>
       <c r="U42" s="6">
-        <v>-33072.82</v>
+        <v>-62606.295</v>
       </c>
       <c r="V42" s="1">
-        <v>11144765.0</v>
+        <v>11144765</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <v>0.0</v>
@@ -3509,7 +3578,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
@@ -3531,40 +3600,40 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>11702003.0</v>
+        <v>11702003</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>409570</v>
+        <v>3510600.9</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>0.0</v>
+        <v>18106.009</v>
       </c>
       <c r="U43" s="6">
-        <v>-34726.4575</v>
+        <v>-65736.009</v>
       </c>
       <c r="V43" s="1">
-        <v>11702003.0</v>
+        <v>11702003</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>0.0</v>
@@ -3583,7 +3652,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
@@ -3605,40 +3674,40 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>12287103.0</v>
+        <v>12287103</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>430049</v>
+        <v>3686130.9</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>0.0</v>
+        <v>19861.309</v>
       </c>
       <c r="U44" s="6">
-        <v>-36462.785375</v>
+        <v>-69023.309</v>
       </c>
       <c r="V44" s="1">
-        <v>12287103.0</v>
+        <v>12287103</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>0.0</v>
@@ -3657,7 +3726,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
@@ -3679,40 +3748,40 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>12901458.0</v>
+        <v>12901458</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>451551</v>
+        <v>3870437.4</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>0.0</v>
+        <v>21704.374</v>
       </c>
       <c r="U45" s="6">
-        <v>-38285.92014375</v>
+        <v>-72474.374</v>
       </c>
       <c r="V45" s="1">
-        <v>12901458.0</v>
+        <v>12901458</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0.0</v>
@@ -3731,7 +3800,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
@@ -3753,40 +3822,40 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>13546531.0</v>
+        <v>13546531</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>474129</v>
+        <v>4063959.3</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>0.0</v>
+        <v>23639.593</v>
       </c>
       <c r="U46" s="6">
-        <v>-40200.220650938</v>
+        <v>-76097.593</v>
       </c>
       <c r="V46" s="1">
-        <v>13546531.0</v>
+        <v>13546531</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <v>0.0</v>
@@ -3805,7 +3874,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
@@ -3827,40 +3896,40 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>14223858.0</v>
+        <v>14223858</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>497835</v>
+        <v>4267157.4</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>0.0</v>
+        <v>25671.574</v>
       </c>
       <c r="U47" s="6">
-        <v>-42210.227183485</v>
+        <v>-79902.574</v>
       </c>
       <c r="V47" s="1">
-        <v>14223858.0</v>
+        <v>14223858</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA47">
         <v>0.0</v>
@@ -3879,7 +3948,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
@@ -3901,40 +3970,40 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>14935051.0</v>
+        <v>14935051</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>522727</v>
+        <v>4480515.3</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>0.0</v>
+        <v>27805.153</v>
       </c>
       <c r="U48" s="6">
-        <v>-44320.741042659</v>
+        <v>-83898.153</v>
       </c>
       <c r="V48" s="1">
-        <v>14935051.0</v>
+        <v>14935051</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA48">
         <v>0.0</v>
@@ -3953,7 +4022,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
@@ -3975,40 +4044,40 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>15681804.0</v>
+        <v>15681804</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>548863</v>
+        <v>4704541.2</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>0.0</v>
+        <v>30045.412</v>
       </c>
       <c r="U49" s="6">
-        <v>-46536.774594792</v>
+        <v>-88093.412</v>
       </c>
       <c r="V49" s="1">
-        <v>15681804.0</v>
+        <v>15681804</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>0.0</v>
@@ -4027,7 +4096,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
@@ -4049,40 +4118,40 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>16465894.0</v>
+        <v>16465894</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>576306</v>
+        <v>4939768.2</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>0.0</v>
+        <v>32397.682</v>
       </c>
       <c r="U50" s="6">
-        <v>-48863.611824532</v>
+        <v>-92497.682</v>
       </c>
       <c r="V50" s="1">
-        <v>16465894.0</v>
+        <v>16465894</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA50">
         <v>0.0</v>
@@ -4101,7 +4170,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
@@ -4123,40 +4192,40 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>17289189.0</v>
+        <v>17289189</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>605121</v>
+        <v>5186756.7</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>0.0</v>
+        <v>34867.567</v>
       </c>
       <c r="U51" s="6">
-        <v>-51306.789415759</v>
+        <v>-97122.567</v>
       </c>
       <c r="V51" s="1">
-        <v>17289189.0</v>
+        <v>17289189</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <v>0.0</v>
@@ -4175,7 +4244,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -4197,40 +4266,40 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>18153648.0</v>
+        <v>18153648</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>635377</v>
+        <v>5446094.4</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>0.0</v>
+        <v>37460.944</v>
       </c>
       <c r="U52" s="6">
-        <v>-53872.128386547</v>
+        <v>-101978.944</v>
       </c>
       <c r="V52" s="1">
-        <v>18153648.0</v>
+        <v>18153648</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>0.0</v>
@@ -4249,7 +4318,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -4271,40 +4340,40 @@
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>19061330.0</v>
+        <v>19061330</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>667146</v>
+        <v>5718399.0</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>0.0</v>
+        <v>40183.99</v>
       </c>
       <c r="U53" s="13">
-        <v>-56565.736305874</v>
+        <v>-107077.99</v>
       </c>
       <c r="V53" s="13">
-        <v>19061330.0</v>
+        <v>19061330</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="3">
         <v>0.0</v>
@@ -4323,7 +4392,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4345,40 +4414,40 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>20014397.0</v>
+        <v>20014397</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>700503</v>
+        <v>6004319.1</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>0.0</v>
+        <v>43043.191</v>
       </c>
       <c r="U54" s="6">
-        <v>-59394.020121168</v>
+        <v>-112431.191</v>
       </c>
       <c r="V54" s="1">
-        <v>20014397.0</v>
+        <v>20014397</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA54">
         <v>0.0</v>
@@ -4397,7 +4466,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4419,40 +4488,40 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>21015117.0</v>
+        <v>21015117</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>735528</v>
+        <v>6304535.1</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>0.0</v>
+        <v>46045.351</v>
       </c>
       <c r="U55" s="6">
-        <v>-62363.719627226</v>
+        <v>-118053.351</v>
       </c>
       <c r="V55" s="1">
-        <v>21015117.0</v>
+        <v>21015117</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>0.0</v>
@@ -4471,7 +4540,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4493,40 +4562,40 @@
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>22065873.0</v>
+        <v>22065873</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>772304</v>
+        <v>6619761.9</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>0.0</v>
+        <v>49197.619</v>
       </c>
       <c r="U56" s="6">
-        <v>-65481.901608587</v>
+        <v>-123955.619</v>
       </c>
       <c r="V56" s="1">
-        <v>22065873.0</v>
+        <v>22065873</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA56">
         <v>0.0</v>
@@ -4545,7 +4614,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4567,40 +4636,40 @@
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>23169167.0</v>
+        <v>23169167</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>810919</v>
+        <v>6950750.1</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>0.0</v>
+        <v>52507.501</v>
       </c>
       <c r="U57" s="13">
-        <v>-68755.994689016</v>
+        <v>-130153.501</v>
       </c>
       <c r="V57" s="13">
-        <v>23169167.0</v>
+        <v>23169167</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>0.0</v>
@@ -4619,7 +4688,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -4641,40 +4710,40 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>24327625.0</v>
+        <v>24327625</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>851465</v>
+        <v>7298287.5</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>0.0</v>
+        <v>55982.875</v>
       </c>
       <c r="U58" s="6">
-        <v>-72193.794923467</v>
+        <v>-136661.875</v>
       </c>
       <c r="V58" s="1">
-        <v>24327625.0</v>
+        <v>24327625</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>0.0</v>
@@ -4693,7 +4762,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -4715,40 +4784,40 @@
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>25544006.0</v>
+        <v>25544006</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>894038</v>
+        <v>7663201.8</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>0.0</v>
+        <v>59632.018</v>
       </c>
       <c r="U59" s="6">
-        <v>-75803.48216964</v>
+        <v>-143495.018</v>
       </c>
       <c r="V59" s="1">
-        <v>25544006.0</v>
+        <v>25544006</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA59">
         <v>0.0</v>
@@ -4767,7 +4836,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -4789,40 +4858,40 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>26821206.0</v>
+        <v>26821206</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>938740</v>
+        <v>8046361.8</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>0.0</v>
+        <v>63463.618</v>
       </c>
       <c r="U60" s="6">
-        <v>-79593.657278122</v>
+        <v>-150669.618</v>
       </c>
       <c r="V60" s="1">
-        <v>26821206.0</v>
+        <v>26821206</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA60">
         <v>0.0</v>
@@ -4841,7 +4910,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -4863,40 +4932,40 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>28162266.0</v>
+        <v>28162266</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>985677</v>
+        <v>8448679.8</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>0.0</v>
+        <v>67486.798</v>
       </c>
       <c r="U61" s="6">
-        <v>-83573.340142028</v>
+        <v>-158202.798</v>
       </c>
       <c r="V61" s="1">
-        <v>28162266.0</v>
+        <v>28162266</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA61">
         <v>0.0</v>
@@ -4915,7 +4984,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -4937,40 +5006,40 @@
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>29570379.0</v>
+        <v>29570379</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>1034961</v>
+        <v>8871113.7</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>0.0</v>
+        <v>71711.137</v>
       </c>
       <c r="U62" s="6">
-        <v>-87752.008649129</v>
+        <v>-166113.137</v>
       </c>
       <c r="V62" s="1">
-        <v>29570379.0</v>
+        <v>29570379</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA62">
         <v>0.0</v>
@@ -4989,7 +5058,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5011,40 +5080,40 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>31048898.0</v>
+        <v>31048898</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>1086709</v>
+        <v>9314669.4</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>0.0</v>
+        <v>76146.694</v>
       </c>
       <c r="U63" s="6">
-        <v>-92139.608581585</v>
+        <v>-174418.694</v>
       </c>
       <c r="V63" s="1">
-        <v>31048898.0</v>
+        <v>31048898</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA63">
         <v>0.0</v>
@@ -5063,7 +5132,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5085,40 +5154,40 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>32601343.0</v>
+        <v>32601343</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>1141044</v>
+        <v>9780402.9</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>0.0</v>
+        <v>80804.029</v>
       </c>
       <c r="U64" s="6">
-        <v>-96746.584510664</v>
+        <v>-183140.029</v>
       </c>
       <c r="V64" s="1">
-        <v>32601343.0</v>
+        <v>32601343</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA64">
         <v>0.0</v>
@@ -5137,7 +5206,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5159,40 +5228,40 @@
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>34231410.0</v>
+        <v>34231410</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>1198096</v>
+        <v>10269423.0</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>0.0</v>
+        <v>85694.23</v>
       </c>
       <c r="U65" s="6">
-        <v>-101583.9117362</v>
+        <v>-192296.23</v>
       </c>
       <c r="V65" s="1">
-        <v>34231410.0</v>
+        <v>34231410</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>0.0</v>
@@ -5211,7 +5280,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -5233,40 +5302,40 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>35942981.0</v>
+        <v>35942981</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>1258001</v>
+        <v>10782894.3</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
       </c>
       <c r="T66" s="1">
-        <v>0.0</v>
+        <v>90828.943</v>
       </c>
       <c r="U66" s="6">
-        <v>-106663.10932301</v>
+        <v>-201911.943</v>
       </c>
       <c r="V66" s="1">
-        <v>35942981.0</v>
+        <v>35942981</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA66">
         <v>0.0</v>
@@ -5285,7 +5354,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -5307,40 +5376,40 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>37740130.0</v>
+        <v>37740130</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>1320901</v>
+        <v>11322039.0</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
       </c>
       <c r="T67" s="1">
-        <v>0.0</v>
+        <v>96220.39</v>
       </c>
       <c r="U67" s="6">
-        <v>-111996.26428916</v>
+        <v>-212007.39</v>
       </c>
       <c r="V67" s="1">
-        <v>37740130.0</v>
+        <v>37740130</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA67">
         <v>0.0</v>
@@ -5359,7 +5428,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -5381,40 +5450,40 @@
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>39627137.0</v>
+        <v>39627137</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>1386946</v>
+        <v>11888141.1</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
       </c>
       <c r="T68" s="1">
-        <v>0.0</v>
+        <v>101881.411</v>
       </c>
       <c r="U68" s="6">
-        <v>-117596.07700361</v>
+        <v>-222607.411</v>
       </c>
       <c r="V68" s="1">
-        <v>39627137.0</v>
+        <v>39627137</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>0.0</v>
@@ -5433,7 +5502,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -5455,40 +5524,40 @@
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>41608494.0</v>
+        <v>41608494</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>1456293</v>
+        <v>12482548.2</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
       </c>
       <c r="T69" s="1">
-        <v>0.0</v>
+        <v>107825.482</v>
       </c>
       <c r="U69" s="6">
-        <v>-123475.87785379</v>
+        <v>-233737.482</v>
       </c>
       <c r="V69" s="1">
-        <v>41608494.0</v>
+        <v>41608494</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>0.0</v>
@@ -5507,7 +5576,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -5529,40 +5598,40 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>43688919.0</v>
+        <v>43688919</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>1529108</v>
+        <v>13106675.7</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
       </c>
       <c r="T70" s="1">
-        <v>0.0</v>
+        <v>114066.757</v>
       </c>
       <c r="U70" s="6">
-        <v>-129649.67524648</v>
+        <v>-245424.757</v>
       </c>
       <c r="V70" s="1">
-        <v>43688919.0</v>
+        <v>43688919</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA70">
         <v>0.0</v>
@@ -5581,7 +5650,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -5603,40 +5672,40 @@
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>45873365.0</v>
+        <v>45873365</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>1605563</v>
+        <v>13762009.5</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
       </c>
       <c r="T71" s="1">
-        <v>0.0</v>
+        <v>120620.095</v>
       </c>
       <c r="U71" s="6">
-        <v>-136132.1550088</v>
+        <v>-257696.095</v>
       </c>
       <c r="V71" s="1">
-        <v>45873365.0</v>
+        <v>45873365</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>0.0</v>
@@ -5655,7 +5724,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -5677,40 +5746,40 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>48167033.0</v>
+        <v>48167033</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>1685841</v>
+        <v>14450109.9</v>
       </c>
       <c r="S72" s="16">
         <v>0.01</v>
       </c>
       <c r="T72" s="5">
-        <v>0.0</v>
+        <v>127501.099</v>
       </c>
       <c r="U72" s="5">
-        <v>-142938.76125924</v>
+        <v>-270581.099</v>
       </c>
       <c r="V72" s="5">
-        <v>48167033.0</v>
+        <v>48167033</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="15">
         <v>0.0</v>
@@ -5993,7 +6062,7 @@
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -6154,11 +6223,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
@@ -6168,14 +6237,14 @@
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
@@ -6189,14 +6258,14 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6">
@@ -6218,11 +6287,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -6232,14 +6301,14 @@
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
@@ -6253,14 +6322,14 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7">
@@ -6271,7 +6340,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6282,11 +6351,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -6296,14 +6365,14 @@
       <c r="K8" s="1"/>
       <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
@@ -6317,14 +6386,14 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8">
@@ -6335,7 +6404,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6346,11 +6415,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -6360,14 +6429,14 @@
       <c r="K9" s="1"/>
       <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
@@ -6381,14 +6450,14 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9">
@@ -6399,7 +6468,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6410,11 +6479,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -6424,14 +6493,14 @@
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
@@ -6445,14 +6514,14 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10">
@@ -6463,7 +6532,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6474,11 +6543,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -6488,14 +6557,14 @@
       <c r="K11" s="1"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
@@ -6509,14 +6578,14 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11">
@@ -6527,7 +6596,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6538,11 +6607,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -6552,14 +6621,14 @@
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
@@ -6573,14 +6642,14 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12">
@@ -6591,7 +6660,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6602,11 +6671,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -6616,14 +6685,14 @@
       <c r="K13" s="1"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
@@ -6637,14 +6706,14 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13">
@@ -6655,7 +6724,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6666,11 +6735,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -6680,14 +6749,14 @@
       <c r="K14" s="1"/>
       <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
@@ -6701,14 +6770,14 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14">
@@ -6719,7 +6788,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6730,11 +6799,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -6744,14 +6813,14 @@
       <c r="K15" s="1"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
@@ -6765,14 +6834,14 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15">
@@ -6783,7 +6852,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6794,11 +6863,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -6808,14 +6877,14 @@
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
@@ -6829,14 +6898,14 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16">
@@ -6847,7 +6916,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6858,11 +6927,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -6872,14 +6941,14 @@
       <c r="K17" s="1"/>
       <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
@@ -6893,14 +6962,14 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17">
@@ -6911,7 +6980,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6922,11 +6991,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -6936,14 +7005,14 @@
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
@@ -6957,14 +7026,14 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18">
@@ -6975,7 +7044,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -6986,11 +7055,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -7000,14 +7069,14 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
@@ -7021,14 +7090,14 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19">
@@ -7039,7 +7108,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7050,11 +7119,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -7064,14 +7133,14 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
@@ -7085,14 +7154,14 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20">
@@ -7103,7 +7172,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7114,11 +7183,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -7128,14 +7197,14 @@
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
@@ -7149,14 +7218,14 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21">
@@ -7167,7 +7236,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7178,11 +7247,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -7192,14 +7261,14 @@
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
@@ -7213,14 +7282,14 @@
         <v>0.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22">
@@ -7231,7 +7300,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7242,11 +7311,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
@@ -7256,14 +7325,14 @@
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
@@ -7277,14 +7346,14 @@
         <v>0.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23">
@@ -7295,7 +7364,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7306,11 +7375,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
@@ -7320,14 +7389,14 @@
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
@@ -7341,14 +7410,14 @@
         <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24">
@@ -7359,7 +7428,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7370,11 +7439,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -7384,14 +7453,14 @@
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
@@ -7405,14 +7474,14 @@
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25">
@@ -7423,7 +7492,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7434,11 +7503,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -7448,14 +7517,14 @@
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
@@ -7469,14 +7538,14 @@
         <v>0.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26">
@@ -7487,7 +7556,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7498,11 +7567,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -7512,14 +7581,14 @@
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
@@ -7533,14 +7602,14 @@
         <v>0.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27">
@@ -7551,7 +7620,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7562,11 +7631,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -7576,14 +7645,14 @@
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
@@ -7597,14 +7666,14 @@
         <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28">
@@ -7615,7 +7684,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7626,11 +7695,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -7640,14 +7709,14 @@
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
@@ -7661,14 +7730,14 @@
         <v>0.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29">
@@ -7679,7 +7748,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7690,11 +7759,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -7704,14 +7773,14 @@
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
@@ -7725,14 +7794,14 @@
         <v>0.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30">
@@ -7743,7 +7812,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7754,11 +7823,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -7768,14 +7837,14 @@
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
@@ -7789,14 +7858,14 @@
         <v>0.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31">
@@ -7807,7 +7876,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -7818,11 +7887,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -7832,14 +7901,14 @@
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
@@ -7853,14 +7922,14 @@
         <v>0.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32">
@@ -7871,7 +7940,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -7882,11 +7951,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -7896,14 +7965,14 @@
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
@@ -7917,14 +7986,14 @@
         <v>0.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33">
@@ -7935,7 +8004,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -7946,11 +8015,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -7960,14 +8029,14 @@
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
@@ -7981,14 +8050,14 @@
         <v>0.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34">
@@ -7999,7 +8068,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8010,11 +8079,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -8024,14 +8093,14 @@
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
@@ -8045,14 +8114,14 @@
         <v>0.0</v>
       </c>
       <c r="V35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35">
@@ -8063,7 +8132,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8074,11 +8143,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -8088,14 +8157,14 @@
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
@@ -8109,14 +8178,14 @@
         <v>0.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36">
@@ -8127,7 +8196,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8138,11 +8207,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -8152,14 +8221,14 @@
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
@@ -8173,14 +8242,14 @@
         <v>0.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37">
@@ -8191,7 +8260,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8202,11 +8271,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8">
-        <v>24000.0</v>
+        <v>24000</v>
       </c>
       <c r="F38" s="9">
         <v>0.05</v>
@@ -8218,14 +8287,14 @@
       <c r="K38" s="8"/>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>10000000.0</v>
+        <v>10000000</v>
       </c>
       <c r="Q38" s="9">
         <v>0.02</v>
@@ -8243,14 +8312,14 @@
         <v>-27500.0</v>
       </c>
       <c r="V38" s="8">
-        <v>10000000.0</v>
+        <v>10000000</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="7">
@@ -8261,7 +8330,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8272,11 +8341,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>25200.0</v>
+        <v>25200</v>
       </c>
       <c r="F39" s="2">
         <v>0.05</v>
@@ -8288,39 +8357,39 @@
       <c r="K39" s="1"/>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>10200000.0</v>
+        <v>10200000</v>
       </c>
       <c r="Q39" s="2">
         <v>0.02</v>
       </c>
       <c r="R39" s="1">
-        <v>357000</v>
+        <v>3060000.0</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
       </c>
       <c r="T39" s="1">
-        <v>3570.0</v>
+        <v>30600.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-28770.0</v>
+        <v>-55800.0</v>
       </c>
       <c r="V39" s="1">
-        <v>10200000.0</v>
+        <v>10200000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39">
@@ -8331,7 +8400,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8342,11 +8411,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>26460.0</v>
+        <v>26460</v>
       </c>
       <c r="F40" s="12">
         <v>0.05</v>
@@ -8358,39 +8427,39 @@
       <c r="K40" s="11"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>10404000.0</v>
+        <v>10404000</v>
       </c>
       <c r="Q40" s="12">
         <v>0.03</v>
       </c>
       <c r="R40" s="11">
-        <v>364140</v>
+        <v>3121200.0</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
       </c>
       <c r="T40" s="11">
-        <v>3641.4</v>
+        <v>31212.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-30101.4</v>
+        <v>-57672.0</v>
       </c>
       <c r="V40" s="11">
-        <v>10404000.0</v>
+        <v>10404000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
@@ -8401,7 +8470,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8412,11 +8481,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>27783.0</v>
+        <v>27783</v>
       </c>
       <c r="F41" s="2">
         <v>0.05</v>
@@ -8428,39 +8497,39 @@
       <c r="K41" s="1"/>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>10716120.0</v>
+        <v>10716120</v>
       </c>
       <c r="Q41" s="2">
         <v>0.04</v>
       </c>
       <c r="R41" s="1">
-        <v>375064</v>
+        <v>3214836.0</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
       </c>
       <c r="T41" s="1">
-        <v>3750.64</v>
+        <v>32148.36</v>
       </c>
       <c r="U41" s="6">
-        <v>-31533.64</v>
+        <v>-59931.36</v>
       </c>
       <c r="V41" s="1">
-        <v>10716120.0</v>
+        <v>10716120</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
@@ -8471,7 +8540,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8482,7 +8551,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
@@ -8498,39 +8567,39 @@
       <c r="K42" s="1"/>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>11144765.0</v>
+        <v>11144765</v>
       </c>
       <c r="Q42" s="2">
         <v>0.05</v>
       </c>
       <c r="R42" s="1">
-        <v>390067</v>
+        <v>3343429.5</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
       </c>
       <c r="T42" s="1">
-        <v>3900.67</v>
+        <v>33434.295</v>
       </c>
       <c r="U42" s="6">
-        <v>-33072.82</v>
+        <v>-62606.295</v>
       </c>
       <c r="V42" s="1">
-        <v>11144765.0</v>
+        <v>11144765</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
@@ -8541,7 +8610,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8552,7 +8621,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
@@ -8568,39 +8637,39 @@
       <c r="K43" s="1"/>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>11702003.0</v>
+        <v>11702003</v>
       </c>
       <c r="Q43" s="2">
         <v>0.05</v>
       </c>
       <c r="R43" s="1">
-        <v>409570</v>
+        <v>3510600.9</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>4095.7</v>
+        <v>35106.009</v>
       </c>
       <c r="U43" s="6">
-        <v>-34726.4575</v>
+        <v>-65736.009</v>
       </c>
       <c r="V43" s="1">
-        <v>11702003.0</v>
+        <v>11702003</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
@@ -8611,7 +8680,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8622,7 +8691,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
@@ -8638,39 +8707,39 @@
       <c r="K44" s="1"/>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>12287103.0</v>
+        <v>12287103</v>
       </c>
       <c r="Q44" s="2">
         <v>0.05</v>
       </c>
       <c r="R44" s="1">
-        <v>430049</v>
+        <v>3686130.9</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>4300.49</v>
+        <v>36861.309</v>
       </c>
       <c r="U44" s="6">
-        <v>-36462.785375</v>
+        <v>-69023.309</v>
       </c>
       <c r="V44" s="1">
-        <v>12287103.0</v>
+        <v>12287103</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
@@ -8681,7 +8750,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8692,7 +8761,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
@@ -8708,39 +8777,39 @@
       <c r="K45" s="1"/>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>12901458.0</v>
+        <v>12901458</v>
       </c>
       <c r="Q45" s="2">
         <v>0.05</v>
       </c>
       <c r="R45" s="1">
-        <v>451551</v>
+        <v>3870437.4</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>4515.51</v>
+        <v>38704.374</v>
       </c>
       <c r="U45" s="6">
-        <v>-38285.92014375</v>
+        <v>-72474.374</v>
       </c>
       <c r="V45" s="1">
-        <v>12901458.0</v>
+        <v>12901458</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
@@ -8751,7 +8820,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8762,7 +8831,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
@@ -8778,39 +8847,39 @@
       <c r="K46" s="1"/>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>13546531.0</v>
+        <v>13546531</v>
       </c>
       <c r="Q46" s="2">
         <v>0.05</v>
       </c>
       <c r="R46" s="1">
-        <v>474129</v>
+        <v>4063959.3</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>4741.29</v>
+        <v>40639.593</v>
       </c>
       <c r="U46" s="6">
-        <v>-40200.220650938</v>
+        <v>-76097.593</v>
       </c>
       <c r="V46" s="1">
-        <v>13546531.0</v>
+        <v>13546531</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
@@ -8821,7 +8890,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -8832,7 +8901,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
@@ -8848,39 +8917,39 @@
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>14223858.0</v>
+        <v>14223858</v>
       </c>
       <c r="Q47" s="2">
         <v>0.05</v>
       </c>
       <c r="R47" s="1">
-        <v>497835</v>
+        <v>4267157.4</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>4978.35</v>
+        <v>42671.574</v>
       </c>
       <c r="U47" s="6">
-        <v>-42210.227183485</v>
+        <v>-79902.574</v>
       </c>
       <c r="V47" s="1">
-        <v>14223858.0</v>
+        <v>14223858</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
@@ -8891,7 +8960,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -8902,7 +8971,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
@@ -8918,39 +8987,39 @@
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>14935051.0</v>
+        <v>14935051</v>
       </c>
       <c r="Q48" s="2">
         <v>0.05</v>
       </c>
       <c r="R48" s="1">
-        <v>522727</v>
+        <v>4480515.3</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>5227.27</v>
+        <v>44805.153</v>
       </c>
       <c r="U48" s="6">
-        <v>-44320.741042659</v>
+        <v>-83898.153</v>
       </c>
       <c r="V48" s="1">
-        <v>14935051.0</v>
+        <v>14935051</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
@@ -8961,7 +9030,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -8972,7 +9041,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
@@ -8988,39 +9057,39 @@
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>15681804.0</v>
+        <v>15681804</v>
       </c>
       <c r="Q49" s="2">
         <v>0.05</v>
       </c>
       <c r="R49" s="1">
-        <v>548863</v>
+        <v>4704541.2</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>5488.63</v>
+        <v>47045.412</v>
       </c>
       <c r="U49" s="6">
-        <v>-46536.774594792</v>
+        <v>-88093.412</v>
       </c>
       <c r="V49" s="1">
-        <v>15681804.0</v>
+        <v>15681804</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
@@ -9031,7 +9100,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9042,7 +9111,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
@@ -9058,39 +9127,39 @@
       <c r="K50" s="1"/>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>16465894.0</v>
+        <v>16465894</v>
       </c>
       <c r="Q50" s="2">
         <v>0.05</v>
       </c>
       <c r="R50" s="1">
-        <v>576306</v>
+        <v>4939768.2</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>5763.06</v>
+        <v>49397.682</v>
       </c>
       <c r="U50" s="6">
-        <v>-48863.611824532</v>
+        <v>-92497.682</v>
       </c>
       <c r="V50" s="1">
-        <v>16465894.0</v>
+        <v>16465894</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
@@ -9101,7 +9170,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9112,7 +9181,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
@@ -9128,39 +9197,39 @@
       <c r="K51" s="1"/>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>17289189.0</v>
+        <v>17289189</v>
       </c>
       <c r="Q51" s="2">
         <v>0.05</v>
       </c>
       <c r="R51" s="1">
-        <v>605121</v>
+        <v>5186756.7</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>6051.21</v>
+        <v>51867.567</v>
       </c>
       <c r="U51" s="6">
-        <v>-51306.789415759</v>
+        <v>-97122.567</v>
       </c>
       <c r="V51" s="1">
-        <v>17289189.0</v>
+        <v>17289189</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
@@ -9171,7 +9240,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9182,7 +9251,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -9198,39 +9267,39 @@
       <c r="K52" s="1"/>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>18153648.0</v>
+        <v>18153648</v>
       </c>
       <c r="Q52" s="2">
         <v>0.05</v>
       </c>
       <c r="R52" s="1">
-        <v>635377</v>
+        <v>5446094.4</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>6353.77</v>
+        <v>54460.944</v>
       </c>
       <c r="U52" s="6">
-        <v>-53872.128386547</v>
+        <v>-101978.944</v>
       </c>
       <c r="V52" s="1">
-        <v>18153648.0</v>
+        <v>18153648</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
@@ -9241,7 +9310,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9252,7 +9321,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -9268,39 +9337,39 @@
       <c r="K53" s="13"/>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>19061330.0</v>
+        <v>19061330</v>
       </c>
       <c r="Q53" s="14">
         <v>0.05</v>
       </c>
       <c r="R53" s="13">
-        <v>667146</v>
+        <v>5718399.0</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>6671.46</v>
+        <v>57183.99</v>
       </c>
       <c r="U53" s="13">
-        <v>-56565.736305874</v>
+        <v>-107077.99</v>
       </c>
       <c r="V53" s="13">
-        <v>19061330.0</v>
+        <v>19061330</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="13"/>
       <c r="AA53" s="3">
@@ -9311,7 +9380,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9322,7 +9391,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -9338,39 +9407,39 @@
       <c r="K54" s="1"/>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>20014397.0</v>
+        <v>20014397</v>
       </c>
       <c r="Q54" s="2">
         <v>0.05</v>
       </c>
       <c r="R54" s="1">
-        <v>700503</v>
+        <v>6004319.1</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>7005.03</v>
+        <v>60043.191</v>
       </c>
       <c r="U54" s="6">
-        <v>-59394.020121168</v>
+        <v>-112431.191</v>
       </c>
       <c r="V54" s="1">
-        <v>20014397.0</v>
+        <v>20014397</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54">
@@ -9381,7 +9450,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9392,7 +9461,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -9408,39 +9477,39 @@
       <c r="K55" s="1"/>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>21015117.0</v>
+        <v>21015117</v>
       </c>
       <c r="Q55" s="2">
         <v>0.05</v>
       </c>
       <c r="R55" s="1">
-        <v>735528</v>
+        <v>6304535.1</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>7355.28</v>
+        <v>63045.351</v>
       </c>
       <c r="U55" s="6">
-        <v>-62363.719627226</v>
+        <v>-118053.351</v>
       </c>
       <c r="V55" s="1">
-        <v>21015117.0</v>
+        <v>21015117</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55">
@@ -9451,7 +9520,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9462,7 +9531,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -9478,39 +9547,39 @@
       <c r="K56" s="1"/>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>22065873.0</v>
+        <v>22065873</v>
       </c>
       <c r="Q56" s="2">
         <v>0.05</v>
       </c>
       <c r="R56" s="1">
-        <v>772304</v>
+        <v>6619761.9</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>7723.04</v>
+        <v>66197.619</v>
       </c>
       <c r="U56" s="6">
-        <v>-65481.901608587</v>
+        <v>-123955.619</v>
       </c>
       <c r="V56" s="1">
-        <v>22065873.0</v>
+        <v>22065873</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56">
@@ -9521,7 +9590,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9532,7 +9601,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -9548,39 +9617,39 @@
       <c r="K57" s="13"/>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>23169167.0</v>
+        <v>23169167</v>
       </c>
       <c r="Q57" s="14">
         <v>0.05</v>
       </c>
       <c r="R57" s="13">
-        <v>810919</v>
+        <v>6950750.1</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>8109.19</v>
+        <v>69507.501</v>
       </c>
       <c r="U57" s="13">
-        <v>-68755.994689016</v>
+        <v>-130153.501</v>
       </c>
       <c r="V57" s="13">
-        <v>23169167.0</v>
+        <v>23169167</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="13"/>
       <c r="AA57" s="3">
@@ -9591,7 +9660,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9602,7 +9671,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -9618,39 +9687,39 @@
       <c r="K58" s="1"/>
       <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>24327625.0</v>
+        <v>24327625</v>
       </c>
       <c r="Q58" s="2">
         <v>0.05</v>
       </c>
       <c r="R58" s="1">
-        <v>851465</v>
+        <v>7298287.5</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>8514.65</v>
+        <v>72982.875</v>
       </c>
       <c r="U58" s="6">
-        <v>-72193.794923467</v>
+        <v>-136661.875</v>
       </c>
       <c r="V58" s="1">
-        <v>24327625.0</v>
+        <v>24327625</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58">
@@ -9661,7 +9730,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9672,7 +9741,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -9688,39 +9757,39 @@
       <c r="K59" s="1"/>
       <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>25544006.0</v>
+        <v>25544006</v>
       </c>
       <c r="Q59" s="2">
         <v>0.05</v>
       </c>
       <c r="R59" s="1">
-        <v>894038</v>
+        <v>7663201.8</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>8940.38</v>
+        <v>76632.018</v>
       </c>
       <c r="U59" s="6">
-        <v>-75803.48216964</v>
+        <v>-143495.018</v>
       </c>
       <c r="V59" s="1">
-        <v>25544006.0</v>
+        <v>25544006</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59">
@@ -9731,7 +9800,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9742,7 +9811,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -9758,39 +9827,39 @@
       <c r="K60" s="1"/>
       <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>26821206.0</v>
+        <v>26821206</v>
       </c>
       <c r="Q60" s="2">
         <v>0.05</v>
       </c>
       <c r="R60" s="1">
-        <v>938740</v>
+        <v>8046361.8</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>9387.4</v>
+        <v>80463.618</v>
       </c>
       <c r="U60" s="6">
-        <v>-79593.657278122</v>
+        <v>-150669.618</v>
       </c>
       <c r="V60" s="1">
-        <v>26821206.0</v>
+        <v>26821206</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60">
@@ -9801,7 +9870,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9812,7 +9881,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -9828,39 +9897,39 @@
       <c r="K61" s="1"/>
       <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>28162266.0</v>
+        <v>28162266</v>
       </c>
       <c r="Q61" s="2">
         <v>0.05</v>
       </c>
       <c r="R61" s="1">
-        <v>985677</v>
+        <v>8448679.8</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>9856.77</v>
+        <v>84486.798</v>
       </c>
       <c r="U61" s="6">
-        <v>-83573.340142028</v>
+        <v>-158202.798</v>
       </c>
       <c r="V61" s="1">
-        <v>28162266.0</v>
+        <v>28162266</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61">
@@ -9871,7 +9940,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -9882,7 +9951,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -9898,39 +9967,39 @@
       <c r="K62" s="1"/>
       <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>29570379.0</v>
+        <v>29570379</v>
       </c>
       <c r="Q62" s="2">
         <v>0.05</v>
       </c>
       <c r="R62" s="1">
-        <v>1034961</v>
+        <v>8871113.7</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>10349.61</v>
+        <v>88711.137</v>
       </c>
       <c r="U62" s="6">
-        <v>-87752.008649129</v>
+        <v>-166113.137</v>
       </c>
       <c r="V62" s="1">
-        <v>29570379.0</v>
+        <v>29570379</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62">
@@ -9941,7 +10010,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -9952,7 +10021,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -9968,39 +10037,39 @@
       <c r="K63" s="1"/>
       <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>31048898.0</v>
+        <v>31048898</v>
       </c>
       <c r="Q63" s="2">
         <v>0.05</v>
       </c>
       <c r="R63" s="1">
-        <v>1086709</v>
+        <v>9314669.4</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>10867.09</v>
+        <v>93146.694</v>
       </c>
       <c r="U63" s="6">
-        <v>-92139.608581585</v>
+        <v>-174418.694</v>
       </c>
       <c r="V63" s="1">
-        <v>31048898.0</v>
+        <v>31048898</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63">
@@ -10011,7 +10080,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10022,7 +10091,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10038,39 +10107,39 @@
       <c r="K64" s="1"/>
       <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>32601343.0</v>
+        <v>32601343</v>
       </c>
       <c r="Q64" s="2">
         <v>0.05</v>
       </c>
       <c r="R64" s="1">
-        <v>1141044</v>
+        <v>9780402.9</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>11410.44</v>
+        <v>97804.029</v>
       </c>
       <c r="U64" s="6">
-        <v>-96746.584510664</v>
+        <v>-183140.029</v>
       </c>
       <c r="V64" s="1">
-        <v>32601343.0</v>
+        <v>32601343</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64">
@@ -10081,7 +10150,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10092,7 +10161,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -10108,39 +10177,39 @@
       <c r="K65" s="1"/>
       <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>34231410.0</v>
+        <v>34231410</v>
       </c>
       <c r="Q65" s="2">
         <v>0.05</v>
       </c>
       <c r="R65" s="1">
-        <v>1198096</v>
+        <v>10269423.0</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>11980.96</v>
+        <v>102694.23</v>
       </c>
       <c r="U65" s="6">
-        <v>-101583.9117362</v>
+        <v>-192296.23</v>
       </c>
       <c r="V65" s="1">
-        <v>34231410.0</v>
+        <v>34231410</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65">
@@ -10151,7 +10220,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10162,7 +10231,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -10178,39 +10247,39 @@
       <c r="K66" s="1"/>
       <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>35942981.0</v>
+        <v>35942981</v>
       </c>
       <c r="Q66" s="2">
         <v>0.05</v>
       </c>
       <c r="R66" s="1">
-        <v>1258001</v>
+        <v>10782894.3</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
       </c>
       <c r="T66" s="1">
-        <v>12580.01</v>
+        <v>107828.943</v>
       </c>
       <c r="U66" s="6">
-        <v>-106663.10932301</v>
+        <v>-201911.943</v>
       </c>
       <c r="V66" s="1">
-        <v>35942981.0</v>
+        <v>35942981</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66">
@@ -10221,7 +10290,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10232,7 +10301,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -10248,39 +10317,39 @@
       <c r="K67" s="1"/>
       <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>37740130.0</v>
+        <v>37740130</v>
       </c>
       <c r="Q67" s="2">
         <v>0.05</v>
       </c>
       <c r="R67" s="1">
-        <v>1320901</v>
+        <v>11322039.0</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
       </c>
       <c r="T67" s="1">
-        <v>13209.01</v>
+        <v>113220.39</v>
       </c>
       <c r="U67" s="6">
-        <v>-111996.26428916</v>
+        <v>-212007.39</v>
       </c>
       <c r="V67" s="1">
-        <v>37740130.0</v>
+        <v>37740130</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67">
@@ -10291,7 +10360,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10302,7 +10371,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -10318,39 +10387,39 @@
       <c r="K68" s="1"/>
       <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>39627137.0</v>
+        <v>39627137</v>
       </c>
       <c r="Q68" s="2">
         <v>0.05</v>
       </c>
       <c r="R68" s="1">
-        <v>1386946</v>
+        <v>11888141.1</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
       </c>
       <c r="T68" s="1">
-        <v>13869.46</v>
+        <v>118881.411</v>
       </c>
       <c r="U68" s="6">
-        <v>-117596.07700361</v>
+        <v>-222607.411</v>
       </c>
       <c r="V68" s="1">
-        <v>39627137.0</v>
+        <v>39627137</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68">
@@ -10361,7 +10430,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10372,7 +10441,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -10388,39 +10457,39 @@
       <c r="K69" s="1"/>
       <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>41608494.0</v>
+        <v>41608494</v>
       </c>
       <c r="Q69" s="2">
         <v>0.05</v>
       </c>
       <c r="R69" s="1">
-        <v>1456293</v>
+        <v>12482548.2</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
       </c>
       <c r="T69" s="1">
-        <v>14562.93</v>
+        <v>124825.482</v>
       </c>
       <c r="U69" s="6">
-        <v>-123475.87785379</v>
+        <v>-233737.482</v>
       </c>
       <c r="V69" s="1">
-        <v>41608494.0</v>
+        <v>41608494</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69">
@@ -10431,7 +10500,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10442,7 +10511,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -10458,39 +10527,39 @@
       <c r="K70" s="1"/>
       <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>43688919.0</v>
+        <v>43688919</v>
       </c>
       <c r="Q70" s="2">
         <v>0.05</v>
       </c>
       <c r="R70" s="1">
-        <v>1529108</v>
+        <v>13106675.7</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
       </c>
       <c r="T70" s="1">
-        <v>15291.08</v>
+        <v>131066.757</v>
       </c>
       <c r="U70" s="6">
-        <v>-129649.67524648</v>
+        <v>-245424.757</v>
       </c>
       <c r="V70" s="1">
-        <v>43688919.0</v>
+        <v>43688919</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70">
@@ -10501,7 +10570,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10512,7 +10581,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -10528,39 +10597,39 @@
       <c r="K71" s="1"/>
       <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>45873365.0</v>
+        <v>45873365</v>
       </c>
       <c r="Q71" s="2">
         <v>0.05</v>
       </c>
       <c r="R71" s="1">
-        <v>1605563</v>
+        <v>13762009.5</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
       </c>
       <c r="T71" s="1">
-        <v>16055.63</v>
+        <v>137620.095</v>
       </c>
       <c r="U71" s="6">
-        <v>-136132.1550088</v>
+        <v>-257696.095</v>
       </c>
       <c r="V71" s="1">
-        <v>45873365.0</v>
+        <v>45873365</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71">
@@ -10571,7 +10640,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10582,7 +10651,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -10598,39 +10667,39 @@
       <c r="K72" s="5"/>
       <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>48167033.0</v>
+        <v>48167033</v>
       </c>
       <c r="Q72" s="16">
         <v>0.05</v>
       </c>
       <c r="R72" s="5">
-        <v>1685841</v>
+        <v>14450109.9</v>
       </c>
       <c r="S72" s="16">
         <v>0.01</v>
       </c>
       <c r="T72" s="5">
-        <v>16858.41</v>
+        <v>144501.099</v>
       </c>
       <c r="U72" s="5">
-        <v>-142938.76125924</v>
+        <v>-270581.099</v>
       </c>
       <c r="V72" s="5">
-        <v>48167033.0</v>
+        <v>48167033</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="5"/>
       <c r="AA72" s="15">
@@ -10641,7 +10710,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10902,7 +10971,7 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
